--- a/Päiväkirja/Ajankäyttöraportti.xlsx
+++ b/Päiväkirja/Ajankäyttöraportti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sattar\Desktop\MobOhj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sattar\Desktop\GitMobiiliohjelmointi\273224\Päiväkirja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBDA3F5-ADFB-4777-9A16-BC16D80FA8C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66432F4-8B92-4C93-A976-2370F03D6977}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="825" windowWidth="17430" windowHeight="13845" xr2:uid="{DEB54EB4-1BEC-4433-B0F5-F0532BE338FF}"/>
+    <workbookView xWindow="8250" yWindow="825" windowWidth="19470" windowHeight="13845" xr2:uid="{DEB54EB4-1BEC-4433-B0F5-F0532BE338FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:DV16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,9 +1226,12 @@
       <c r="S9" s="3">
         <v>3680</v>
       </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="T9" s="3">
+        <v>60</v>
+      </c>
+      <c r="U9" s="3">
+        <v>180</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>

--- a/Päiväkirja/Ajankäyttöraportti.xlsx
+++ b/Päiväkirja/Ajankäyttöraportti.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sattar\Desktop\GitMobiiliohjelmointi\273224\Päiväkirja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66432F4-8B92-4C93-A976-2370F03D6977}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE48F533-CABC-4F10-9FB6-4C02EC72B843}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8250" yWindow="825" windowWidth="19470" windowHeight="13845" xr2:uid="{DEB54EB4-1BEC-4433-B0F5-F0532BE338FF}"/>
   </bookViews>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71607C9E-FC15-4455-ACD2-B6B460180637}">
   <dimension ref="A1:DV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,6 +1232,9 @@
       <c r="U9" s="3">
         <v>180</v>
       </c>
+      <c r="V9" s="3">
+        <v>120</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1359,9 +1362,15 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="X10" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>180</v>
+      </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
